--- a/test_data/test_data.xlsx
+++ b/test_data/test_data.xlsx
@@ -1135,7 +1135,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'status': 1, 'msg': '', 'data': {'token': '5344-KT6A6FB87364715BAD058B6059120BE2CB', 'uid': 5344, 'nickname': '我要喝可乐', 'gender': 0, 'avatar': 'https://images.e-gets.io/upload/default/member_face.png', 'language': 1, 'bind_id': 0, 'mobile': '85516273817', 'uuid': 8616626858229760, 'u_token': 'rfItrbZ07pZtCOb4Ktkz6qHHOSesXv5e', 'u_token_expired_at': 0, 'today_login_out_times': 0, 'country_code': '855', 'sns_bind': '', 'created_new_password': ''}}</t>
+          <t>{'status': 1, 'msg': '', 'data': {'token': '5344-KTD942E2666D7DB4E40510D7BDA5A33E3B', 'uid': 5344, 'nickname': '我要喝可乐', 'gender': 0, 'avatar': 'https://images.e-gets.io/upload/default/member_face.png', 'language': 1, 'bind_id': 0, 'mobile': '85516273817', 'uuid': 8616626858229760, 'u_token': 'xyDRdeplLXUXyBIQeJ8RGmkXXackm0J3', 'u_token_expired_at': 0, 'today_login_out_times': 0, 'country_code': '855', 'sns_bind': '', 'created_new_password': ''}}</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>{'data': {'addr_id': '3343'}, 'error': '0', 'message': 'success'}</t>
+          <t>{'data': {'addr_id': '3344'}, 'error': '0', 'message': 'success'}</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">

--- a/test_data/test_data.xlsx
+++ b/test_data/test_data.xlsx
@@ -49,29 +49,14 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -86,17 +71,47 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -109,13 +124,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
@@ -124,6 +132,13 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
@@ -141,21 +156,14 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -170,15 +178,7 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -192,55 +192,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,127 +366,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,6 +383,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -401,17 +436,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -440,24 +469,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -472,21 +483,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
@@ -507,131 +507,131 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="10" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="14" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="2" fillId="4" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="10" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="2" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="16" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="6" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="6" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -649,7 +649,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -657,6 +657,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="7"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1045,7 +1048,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1131,14 +1134,14 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="F2" s="11" t="inlineStr">
         <is>
           <t>[{'jsonPath':'$.status','excepted':1}]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'status': 1, 'msg': '', 'data': {'token': '5344-KTC7EADE6FB2A2251E04339818462CAD1A', 'uid': 5344, 'nickname': '我要喝可乐', 'gender': 0, 'avatar': 'https://images.e-gets.io/upload/default/member_face.png', 'language': 1, 'bind_id': 0, 'mobile': '85516273817', 'uuid': 8616626858229760, 'u_token': 'k2i3trJrJ26skpVqotTGmgSj7VqvH4OT', 'u_token_expired_at': 0, 'today_login_out_times': 0, 'country_code': '855', 'sns_bind': '', 'created_new_password': ''}}</t>
+          <t>{'status': 1, 'msg': '', 'data': {'token': '5344-KT98ABEA316DF9157413BC191722175AE7', 'uid': 5344, 'nickname': '我要喝可乐', 'gender': 0, 'avatar': 'https://images.e-gets.io/upload/default/member_face.png', 'language': 1, 'bind_id': 0, 'mobile': '85516273817', 'uuid': 8616626858229760, 'u_token': 'PB11QtzhEBDuK4YaBtau48HEdCXTtxVD', 'u_token_expired_at': 0, 'today_login_out_times': 2, 'country_code': '855', 'sns_bind': '', 'created_new_password': ''}}</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -1169,7 +1172,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -1257,7 +1260,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>{'data': {'addr_id': '3363'}, 'error': '0', 'message': 'success'}</t>
+          <t>{'data': {'addr_id': '3407'}, 'error': '0', 'message': 'success'}</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -1333,14 +1336,14 @@
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="15" outlineLevelRow="4"/>
   <cols>
     <col customWidth="1" max="2" min="2" width="39.1428571428571"/>
-    <col customWidth="1" max="3" min="3" width="14.7142857142857"/>
+    <col customWidth="1" max="3" min="3" width="23.8571428571429"/>
     <col customWidth="1" max="4" min="4" width="19.8571428571429"/>
     <col customWidth="1" max="6" min="6" width="35.4285714285714"/>
     <col customWidth="1" max="9" min="9" width="24"/>
@@ -1492,12 +1495,7 @@
           <t>[{'jsonPath':'$.status','excepted':1}]</t>
         </is>
       </c>
-      <c r="G4" s="7" t="inlineStr">
-        <is>
-          <t>{'status': 1, 'msg': 'Data:OK', 'data': {'amount': '6.60', 'vat_amount': '0.60', 'product_lists': [{'product_id': '363863', 'spec_id': '', 'num': 2, 'ingredient': [], 'specification': [], 'package_id': '0', 'ingredient_prices': 0, 'title': '上阳赋ca', 'unit': 'មួយ', 'is_spec': 0, 'spec_name': '', 'price': '3.00', 'is_discount': '0', 'disctype': '0', 'discval': '100', 'diffprice': '0', 'oldprice': '3.00', 'huodong_id': '0', 'quota': '0', 'disclabel': '', 'quotalabel': '', 'prices_with_ingredients': '6.00', 'oldprices_with_ingredients': '6.00', 'prices': '6.00', 'oldprices': '6.00'}], 'product_number': 2, 'product_price': '6.00', 'product_price_new': '6.00', 'package_price': '0.00', 'freight_stage': 0, 'freight_label': 'តម្លៃដឹកជញ្ជូន', 'shop_id': 1294, 'shop_title': '测试店铺0001', 'shop_addr': '测试地址001', 'shop_lng': '118.052748', 'shop_lat': '24.605017', 'online_pay': 1, 'vat': 0.1, 'pei_type': 1, 'is_daofu': 1, 'is_ziti': 1, 'is_ziti_daofu': 0, 'is_ziti_hongbao': 1, 'day_dates': [{'date': '2021-04-02', 'day': 'ថ្ងៃនេះ(ថ្ងៃសុក្រ)'}, {'date': '2021-04-03', 'day': 'ថ្ងៃស្អែក(ថ្ងៃសៅរ៍)'}, {'date': '2021-04-04', 'day': 'ខានស្អែក(ថ្ងៃអាទិត្យ)'}], 'set_time_date': {'set_time': ['18:00', '18:15', '18:30', '18:45', '19:00', '19:15', '19:30', '19:45', '20:00', '20:15', '20:30', '20:45', '21:00', '21:15', '21:30', '21:45', '22:00', '22:15', '22:30', '22:45', '23:00', '23:15', '23:30', '23:45'], 'nomal_time': ['01:00', '01:15', '01:30', '01:45', '02:00', '02:15', '02:30', '02:45', '03:00', '07:30', '07:45', '08:00', '08:15', '08:30', '08:45', '09:00', '09:15', '09:30', '09:45', '10:00', '10:15', '10:30', '10:45', '11:00', '11:15', '11:30', '11:45', '12:00', '12:15', '12:30', '12:45', '13:00', '13:15', '13:30', '13:45', '14:00', '14:15', '14:30', '14:45', '15:00', '15:15', '15:30', '15:45', '16:00', '16:15', '16:30', '16:45', '17:00', '17:15', '17:30', '17:45', '18:00', '18:15', '18:30', '18:45', '19:00', '19:15', '19:30', '19:45', '20:00', '20:15', '20:30', '20:45', '21:00', '21:15', '21:30', '21:45', '22:00', '22:15', '22:30', '22:45', '23:00', '23:15', '23:30', '23:45'], 'hide_liji': 0, 'yy_times': ['18:00', '18:15', '18:30', '18:45', '19:00', '19:15', '19:30', '19:45', '20:00', '20:15', '20:30', '20:45', '21:00', '21:15', '21:30', '21:45', '22:00', '22:15', '22:30', '22:45', '23:00', '23:15', '23:30', '23:45']}, 'm_addr': {'addr_id': 0}, 'youhui': [], 'coupon_id': 0, 'coupon_amount': 0, 'coupons': [], 'hongbao_id': 0, 'hongbao_amount': 0, 'hongbaos': [], 'rate': 6, 'rmb': '39.60', 'payment_pay': {'money': {'amount': '6.60', 'rmb': '39.60'}, 'alipay': {'amount': '6.60', 'rmb': '39.60'}, 'pipay': {'amount': '6.60', 'rmb': '39.60'}, 'icbcwxpay': {'amount': '6.60', 'rmb': '39.60'}}, 'support_hongbao': 1, 'support_first': 1, 'support_manjian': 1, 'support_youhui': 1, 'gonggao': '', 'is_large_order': 0, 'bad_weather': 0, 'khr': '4100', 'show_money_charge': 1, 'is_pay_limit_label': '', 'is_pay_limit': 2}}</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="n"/>
+      <c r="G4" s="7" t="n"/>
       <c r="I4" s="4" t="inlineStr">
         <is>
           <t>{'content-type':'application/x-www-form-urlencoded','did':'5560985317801985','tk':'$TOKEN',}</t>

--- a/test_data/test_data.xlsx
+++ b/test_data/test_data.xlsx
@@ -56,7 +56,7 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -71,8 +71,52 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -86,32 +130,32 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -124,25 +168,10 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -153,35 +182,6 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -192,37 +192,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,31 +324,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,55 +348,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,49 +372,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,6 +395,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -406,17 +450,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -436,24 +469,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -468,25 +483,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
@@ -507,37 +507,37 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="4" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="10" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="17" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="19" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0">
@@ -546,88 +546,88 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="16" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="7" fillId="18" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="8" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="8" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="6" fontId="20" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="6" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="23" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1048,7 +1048,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'status': 1, 'msg': '', 'data': {'token': '5344-KT98ABEA316DF9157413BC191722175AE7', 'uid': 5344, 'nickname': '我要喝可乐', 'gender': 0, 'avatar': 'https://images.e-gets.io/upload/default/member_face.png', 'language': 1, 'bind_id': 0, 'mobile': '85516273817', 'uuid': 8616626858229760, 'u_token': 'PB11QtzhEBDuK4YaBtau48HEdCXTtxVD', 'u_token_expired_at': 0, 'today_login_out_times': 2, 'country_code': '855', 'sns_bind': '', 'created_new_password': ''}}</t>
+          <t>{'status': 1, 'msg': '', 'data': {'token': '5344-KTE22578150CDE6D4BAF1B4854564D80B0', 'uid': 5344, 'nickname': '我要喝可乐', 'gender': 0, 'avatar': 'https://images.e-gets.io/upload/default/member_face.png', 'language': 1, 'bind_id': 0, 'mobile': '85516273817', 'uuid': 8616626858229760, 'u_token': 'xat0IlokGMJZTtbYabTeJ4OIKVhLZgeh', 'u_token_expired_at': 0, 'today_login_out_times': 1, 'country_code': '855', 'sns_bind': '', 'created_new_password': ''}}</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -1172,7 +1172,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -1260,7 +1260,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>{'data': {'addr_id': '3407'}, 'error': '0', 'message': 'success'}</t>
+          <t>{'data': {'addr_id': '3433'}, 'error': '0', 'message': 'success'}</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -1337,7 +1337,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="15" outlineLevelRow="4"/>
@@ -1425,6 +1425,16 @@
           <t>[{'jsonPath':'$.status','excepted':1}]</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{'status': 1, 'msg': 'Data:OK', 'data': {'amount': '6.60', 'vat_amount': '0.60', 'product_lists': [{'product_id': '363863', 'spec_id': '', 'num': 2, 'ingredient': [], 'specification': [], 'package_id': '0', 'ingredient_prices': 0, 'title': '二维码', 'unit': '个', 'is_spec': 0, 'spec_name': '', 'price': '3.00', 'is_discount': '0', 'disctype': '0', 'discval': '100', 'diffprice': '0', 'oldprice': '3.00', 'huodong_id': '0', 'quota': '0', 'disclabel': '', 'quotalabel': '', 'prices_with_ingredients': '6.00', 'oldprices_with_ingredients': '6.00', 'prices': '6.00', 'oldprices': '6.00'}], 'product_number': 2, 'product_price': '6.00', 'product_price_new': '6.00', 'package_price': '0.00', 'freight_stage': 0, 'freight_label': '配送费', 'shop_id': 1294, 'shop_title': '快乐奶茶', 'shop_addr': '测试地址001', 'shop_lng': '118.052748', 'shop_lat': '24.605017', 'online_pay': 1, 'vat': 0.1, 'pei_type': 1, 'is_daofu': 1, 'is_ziti': 1, 'is_ziti_daofu': 0, 'is_ziti_hongbao': 1, 'day_dates': [{'date': '2021-04-12', 'day': '今天(周一)'}, {'date': '2021-04-13', 'day': '明天(周二)'}, {'date': '2021-04-14', 'day': '后天(周三)'}], 'set_time_date': {'set_time': ['17:45', '18:00', '18:15', '18:30', '18:45', '19:00', '19:15', '19:30', '19:45', '20:00', '20:15', '20:30', '20:45', '21:00', '21:15', '21:30', '21:45', '22:00', '22:15', '22:30', '22:45', '23:00', '23:15', '23:30', '23:45'], 'nomal_time': ['01:00', '01:15', '01:30', '01:45', '02:00', '02:15', '02:30', '02:45', '03:00', '07:30', '07:45', '08:00', '08:15', '08:30', '08:45', '09:00', '09:15', '09:30', '09:45', '10:00', '10:15', '10:30', '10:45', '11:00', '11:15', '11:30', '11:45', '12:00', '12:15', '12:30', '12:45', '13:00', '13:15', '13:30', '13:45', '14:00', '14:15', '14:30', '14:45', '15:00', '15:15', '15:30', '15:45', '16:00', '16:15', '16:30', '16:45', '17:00', '17:15', '17:30', '17:45', '18:00', '18:15', '18:30', '18:45', '19:00', '19:15', '19:30', '19:45', '20:00', '20:15', '20:30', '20:45', '21:00', '21:15', '21:30', '21:45', '22:00', '22:15', '22:30', '22:45', '23:00', '23:15', '23:30', '23:45'], 'hide_liji': 0, 'yy_times': ['17:45', '18:00', '18:15', '18:30', '18:45', '19:00', '19:15', '19:30', '19:45', '20:00', '20:15', '20:30', '20:45', '21:00', '21:15', '21:30', '21:45', '22:00', '22:15', '22:30', '22:45', '23:00', '23:15', '23:30', '23:45']}, 'm_addr': {'addr_id': 0}, 'youhui': [], 'coupon_id': 0, 'coupon_amount': 0, 'coupons': [], 'hongbao_id': 0, 'hongbao_amount': 0, 'hongbaos': [], 'rate': 6, 'rmb': '39.60', 'payment_pay': {'money': {'amount': '6.60', 'rmb': '39.60'}, 'alipay': {'amount': '6.60', 'rmb': '39.60'}, 'pipay': {'amount': '6.60', 'rmb': '39.60'}, 'icbcwxpay': {'amount': '6.60', 'rmb': '39.60'}}, 'support_hongbao': 1, 'support_first': 1, 'support_manjian': 1, 'support_youhui': 1, 'gonggao': '', 'is_large_order': 0, 'bad_weather': 1, 'khr': '4100', 'show_money_charge': 1, 'is_pay_limit_label': '', 'is_pay_limit': 2}}</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
       <c r="I2" s="4" t="inlineStr">
         <is>
           <t>{'content-type':'application/x-www-form-urlencoded','did':'5560985317801985','tk':'$TOKEN',}</t>
@@ -1460,6 +1470,16 @@
           <t>[{'jsonPath':'$.status','excepted':1}]</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{'status': 1, 'msg': 'Data:OK', 'data': {'amount': '11.60', 'vat_amount': '0.60', 'product_lists': [{'product_id': '363863', 'spec_id': '', 'num': 2, 'ingredient': [], 'specification': [], 'package_id': '0', 'ingredient_prices': 0, 'title': '二维码', 'unit': '个', 'is_spec': 0, 'spec_name': '', 'price': '3.00', 'is_discount': '0', 'disctype': '0', 'discval': '100', 'diffprice': '0', 'oldprice': '3.00', 'huodong_id': '0', 'quota': '0', 'disclabel': '', 'quotalabel': '', 'prices_with_ingredients': '6.00', 'oldprices_with_ingredients': '6.00', 'prices': '6.00', 'oldprices': '6.00'}], 'product_number': 2, 'product_price': '6.00', 'product_price_new': '6.00', 'package_price': '0.00', 'freight_stage': 5, 'freight_label': '恶劣天气配送费', 'shop_id': 1294, 'shop_title': '快乐奶茶', 'shop_addr': '测试地址001', 'shop_lng': '118.052748', 'shop_lat': '24.605017', 'online_pay': 1, 'vat': 0.1, 'pei_type': 1, 'is_daofu': 1, 'is_ziti': 1, 'is_ziti_daofu': 0, 'is_ziti_hongbao': 1, 'day_dates': [{'date': '2021-04-12', 'day': '今天(周一)'}, {'date': '2021-04-13', 'day': '明天(周二)'}, {'date': '2021-04-14', 'day': '后天(周三)'}], 'set_time_date': {'set_time': ['17:45', '18:00', '18:15', '18:30', '18:45', '19:00', '19:15', '19:30', '19:45', '20:00', '20:15', '20:30', '20:45', '21:00', '21:15', '21:30', '21:45', '22:00', '22:15', '22:30', '22:45', '23:00', '23:15', '23:30', '23:45'], 'nomal_time': ['01:00', '01:15', '01:30', '01:45', '02:00', '02:15', '02:30', '02:45', '03:00', '07:30', '07:45', '08:00', '08:15', '08:30', '08:45', '09:00', '09:15', '09:30', '09:45', '10:00', '10:15', '10:30', '10:45', '11:00', '11:15', '11:30', '11:45', '12:00', '12:15', '12:30', '12:45', '13:00', '13:15', '13:30', '13:45', '14:00', '14:15', '14:30', '14:45', '15:00', '15:15', '15:30', '15:45', '16:00', '16:15', '16:30', '16:45', '17:00', '17:15', '17:30', '17:45', '18:00', '18:15', '18:30', '18:45', '19:00', '19:15', '19:30', '19:45', '20:00', '20:15', '20:30', '20:45', '21:00', '21:15', '21:30', '21:45', '22:00', '22:15', '22:30', '22:45', '23:00', '23:15', '23:30', '23:45'], 'hide_liji': 0, 'yy_times': ['17:45', '18:00', '18:15', '18:30', '18:45', '19:00', '19:15', '19:30', '19:45', '20:00', '20:15', '20:30', '20:45', '21:00', '21:15', '21:30', '21:45', '22:00', '22:15', '22:30', '22:45', '23:00', '23:15', '23:30', '23:45']}, 'm_addr': {'addr_id': 3003, 'uid': 5344, 'contact': '不想', 'mobile': '0085516273817', 'addr': '中国福建省厦门市集美区凤岐路', 'house': '我们都在这里', 'lat': '24.612852', 'dateline': 1616049985, 'lng': '118.041842', 'type': 1, 'is_default': 0, 'country_code': '00855', 'wx_account': '', 'addr_photo': 'https://images.e-gets.io/upload/photo/202103/20210318_40E5869EF00BF79996B683EEC928FEEB.jpg', 'addr_photo2': '', 'phone_number': '16273817'}, 'youhui': [], 'coupon_id': 0, 'coupon_amount': 0, 'coupons': [], 'hongbao_id': 0, 'hongbao_amount': 0, 'hongbaos': [], 'rate': 6, 'rmb': '69.60', 'payment_pay': {'money': {'amount': '11.60', 'rmb': '69.60'}, 'alipay': {'amount': '11.60', 'rmb': '69.60'}, 'pipay': {'amount': '11.60', 'rmb': '69.60'}, 'icbcwxpay': {'amount': '11.60', 'rmb': '69.60'}}, 'support_hongbao': 1, 'support_first': 1, 'support_manjian': 1, 'support_youhui': 1, 'gonggao': '', 'is_large_order': 0, 'bad_weather': 1, 'khr': '4100', 'show_money_charge': 1, 'is_pay_limit_label': '', 'is_pay_limit': 2}}</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>{'content-type':'application/x-www-form-urlencoded','did':'5560985317801985','tk':'$TOKEN',}</t>
@@ -1495,7 +1515,16 @@
           <t>[{'jsonPath':'$.status','excepted':1}]</t>
         </is>
       </c>
-      <c r="G4" s="7" t="n"/>
+      <c r="G4" s="7" t="inlineStr">
+        <is>
+          <t>{'status': 1, 'msg': 'Data:OK', 'data': {'order_id': 34443, 'pay_status': 0, 'online_pay': 1, 'member': {'uid': 5344, 'money': '734.30'}}}</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
           <t>{'content-type':'application/x-www-form-urlencoded','did':'5560985317801985','tk':'$TOKEN',}</t>
@@ -1526,8 +1555,20 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F5" s="1" t="n">
-        <v>0</v>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>[{'jsonPath':'$.error','excepted':0}]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{'data': {'go_order_detail': '1'}, 'error': '0', 'message': '余额支付成功'}</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
       </c>
       <c r="I5" s="4" t="inlineStr">
         <is>

--- a/test_data/test_data.xlsx
+++ b/test_data/test_data.xlsx
@@ -1141,7 +1141,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'status': 1, 'msg': '', 'data': {'token': '5344-KTE22578150CDE6D4BAF1B4854564D80B0', 'uid': 5344, 'nickname': '我要喝可乐', 'gender': 0, 'avatar': 'https://images.e-gets.io/upload/default/member_face.png', 'language': 1, 'bind_id': 0, 'mobile': '85516273817', 'uuid': 8616626858229760, 'u_token': 'xat0IlokGMJZTtbYabTeJ4OIKVhLZgeh', 'u_token_expired_at': 0, 'today_login_out_times': 1, 'country_code': '855', 'sns_bind': '', 'created_new_password': ''}}</t>
+          <t>{'status': 1, 'msg': '', 'data': {'token': '5344-KTAA31E66964F659F059360F85514CBD57', 'uid': 5344, 'nickname': '我要喝可乐', 'gender': 0, 'avatar': 'https://images.e-gets.io/upload/default/member_face.png', 'language': 1, 'bind_id': 0, 'mobile': '85516273817', 'uuid': 8616626858229760, 'u_token': 'Mp9ic99womgUInTDA24L6OyWibEBAD6m', 'u_token_expired_at': 0, 'today_login_out_times': 0, 'country_code': '855', 'sns_bind': '', 'created_new_password': ''}}</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>{'data': {'addr_id': '3433'}, 'error': '0', 'message': 'success'}</t>
+          <t>{'data': {'addr_id': '3456'}, 'error': '0', 'message': 'success'}</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'status': 1, 'msg': 'Data:OK', 'data': {'amount': '6.60', 'vat_amount': '0.60', 'product_lists': [{'product_id': '363863', 'spec_id': '', 'num': 2, 'ingredient': [], 'specification': [], 'package_id': '0', 'ingredient_prices': 0, 'title': '二维码', 'unit': '个', 'is_spec': 0, 'spec_name': '', 'price': '3.00', 'is_discount': '0', 'disctype': '0', 'discval': '100', 'diffprice': '0', 'oldprice': '3.00', 'huodong_id': '0', 'quota': '0', 'disclabel': '', 'quotalabel': '', 'prices_with_ingredients': '6.00', 'oldprices_with_ingredients': '6.00', 'prices': '6.00', 'oldprices': '6.00'}], 'product_number': 2, 'product_price': '6.00', 'product_price_new': '6.00', 'package_price': '0.00', 'freight_stage': 0, 'freight_label': '配送费', 'shop_id': 1294, 'shop_title': '快乐奶茶', 'shop_addr': '测试地址001', 'shop_lng': '118.052748', 'shop_lat': '24.605017', 'online_pay': 1, 'vat': 0.1, 'pei_type': 1, 'is_daofu': 1, 'is_ziti': 1, 'is_ziti_daofu': 0, 'is_ziti_hongbao': 1, 'day_dates': [{'date': '2021-04-12', 'day': '今天(周一)'}, {'date': '2021-04-13', 'day': '明天(周二)'}, {'date': '2021-04-14', 'day': '后天(周三)'}], 'set_time_date': {'set_time': ['17:45', '18:00', '18:15', '18:30', '18:45', '19:00', '19:15', '19:30', '19:45', '20:00', '20:15', '20:30', '20:45', '21:00', '21:15', '21:30', '21:45', '22:00', '22:15', '22:30', '22:45', '23:00', '23:15', '23:30', '23:45'], 'nomal_time': ['01:00', '01:15', '01:30', '01:45', '02:00', '02:15', '02:30', '02:45', '03:00', '07:30', '07:45', '08:00', '08:15', '08:30', '08:45', '09:00', '09:15', '09:30', '09:45', '10:00', '10:15', '10:30', '10:45', '11:00', '11:15', '11:30', '11:45', '12:00', '12:15', '12:30', '12:45', '13:00', '13:15', '13:30', '13:45', '14:00', '14:15', '14:30', '14:45', '15:00', '15:15', '15:30', '15:45', '16:00', '16:15', '16:30', '16:45', '17:00', '17:15', '17:30', '17:45', '18:00', '18:15', '18:30', '18:45', '19:00', '19:15', '19:30', '19:45', '20:00', '20:15', '20:30', '20:45', '21:00', '21:15', '21:30', '21:45', '22:00', '22:15', '22:30', '22:45', '23:00', '23:15', '23:30', '23:45'], 'hide_liji': 0, 'yy_times': ['17:45', '18:00', '18:15', '18:30', '18:45', '19:00', '19:15', '19:30', '19:45', '20:00', '20:15', '20:30', '20:45', '21:00', '21:15', '21:30', '21:45', '22:00', '22:15', '22:30', '22:45', '23:00', '23:15', '23:30', '23:45']}, 'm_addr': {'addr_id': 0}, 'youhui': [], 'coupon_id': 0, 'coupon_amount': 0, 'coupons': [], 'hongbao_id': 0, 'hongbao_amount': 0, 'hongbaos': [], 'rate': 6, 'rmb': '39.60', 'payment_pay': {'money': {'amount': '6.60', 'rmb': '39.60'}, 'alipay': {'amount': '6.60', 'rmb': '39.60'}, 'pipay': {'amount': '6.60', 'rmb': '39.60'}, 'icbcwxpay': {'amount': '6.60', 'rmb': '39.60'}}, 'support_hongbao': 1, 'support_first': 1, 'support_manjian': 1, 'support_youhui': 1, 'gonggao': '', 'is_large_order': 0, 'bad_weather': 1, 'khr': '4100', 'show_money_charge': 1, 'is_pay_limit_label': '', 'is_pay_limit': 2}}</t>
+          <t>{'status': 1, 'msg': 'Data:OK', 'data': {'amount': '6.60', 'vat_amount': '0.60', 'product_lists': [{'product_id': '363863', 'spec_id': '', 'num': 2, 'ingredient': [], 'specification': [], 'package_id': '0', 'ingredient_prices': 0, 'title': '二维码', 'unit': '个', 'is_spec': 0, 'spec_name': '', 'price': '3.00', 'is_discount': '0', 'disctype': '0', 'discval': '100', 'diffprice': '0', 'oldprice': '3.00', 'huodong_id': '0', 'quota': '0', 'disclabel': '', 'quotalabel': '', 'prices_with_ingredients': '6.00', 'oldprices_with_ingredients': '6.00', 'prices': '6.00', 'oldprices': '6.00'}], 'product_number': 2, 'product_price': '6.00', 'product_price_new': '6.00', 'package_price': '0.00', 'freight_stage': 0, 'freight_label': '配送费', 'shop_id': 1294, 'shop_title': '快乐奶茶', 'shop_addr': '测试地址001', 'shop_lng': '118.052748', 'shop_lat': '24.605017', 'online_pay': 1, 'vat': 0.1, 'pei_type': 1, 'is_daofu': 1, 'is_ziti': 1, 'is_ziti_daofu': 0, 'is_ziti_hongbao': 1, 'day_dates': [{'date': '2021-04-13', 'day': '今天(周二)'}, {'date': '2021-04-14', 'day': '明天(周三)'}, {'date': '2021-04-15', 'day': '后天(周四)'}], 'set_time_date': {'set_time': ['11:15', '11:30', '11:45', '12:00', '12:15', '12:30', '12:45', '13:00', '13:15', '13:30', '13:45', '14:00', '14:15', '14:30', '14:45', '15:00', '15:15', '15:30', '15:45', '16:00', '16:15', '16:30', '16:45', '17:00', '17:15', '17:30', '17:45', '18:00', '18:15', '18:30', '18:45', '19:00', '19:15', '19:30', '19:45', '20:00', '20:15', '20:30', '20:45', '21:00', '21:15', '21:30', '21:45', '22:00', '22:15', '22:30', '22:45', '23:00', '23:15', '23:30', '23:45'], 'nomal_time': ['01:00', '01:15', '01:30', '01:45', '02:00', '02:15', '02:30', '02:45', '03:00', '07:30', '07:45', '08:00', '08:15', '08:30', '08:45', '09:00', '09:15', '09:30', '09:45', '10:00', '10:15', '10:30', '10:45', '11:00', '11:15', '11:30', '11:45', '12:00', '12:15', '12:30', '12:45', '13:00', '13:15', '13:30', '13:45', '14:00', '14:15', '14:30', '14:45', '15:00', '15:15', '15:30', '15:45', '16:00', '16:15', '16:30', '16:45', '17:00', '17:15', '17:30', '17:45', '18:00', '18:15', '18:30', '18:45', '19:00', '19:15', '19:30', '19:45', '20:00', '20:15', '20:30', '20:45', '21:00', '21:15', '21:30', '21:45', '22:00', '22:15', '22:30', '22:45', '23:00', '23:15', '23:30', '23:45'], 'hide_liji': 0, 'yy_times': ['11:15', '11:30', '11:45', '12:00', '12:15', '12:30', '12:45', '13:00', '13:15', '13:30', '13:45', '14:00', '14:15', '14:30', '14:45', '15:00', '15:15', '15:30', '15:45', '16:00', '16:15', '16:30', '16:45', '17:00', '17:15', '17:30', '17:45', '18:00', '18:15', '18:30', '18:45', '19:00', '19:15', '19:30', '19:45', '20:00', '20:15', '20:30', '20:45', '21:00', '21:15', '21:30', '21:45', '22:00', '22:15', '22:30', '22:45', '23:00', '23:15', '23:30', '23:45']}, 'm_addr': {'addr_id': 0}, 'youhui': [], 'coupon_id': 0, 'coupon_amount': 0, 'coupons': [], 'hongbao_id': 0, 'hongbao_amount': 0, 'hongbaos': [], 'rate': 7.20412, 'rmb': '47.54', 'payment_pay': {'money': {'amount': '6.60', 'rmb': '47.54'}, 'pipay': {'amount': '6.60', 'rmb': '47.54'}, 'mpay': {'amount': '6.60', 'rmb': '47.54'}, 'icbcwxpay': {'amount': '6.60', 'rmb': '47.54'}}, 'support_hongbao': 1, 'support_first': 1, 'support_manjian': 1, 'support_youhui': 1, 'gonggao': '', 'is_large_order': 0, 'bad_weather': 1, 'khr': '4100', 'show_money_charge': 1, 'is_pay_limit_label': '', 'is_pay_limit': 2}}</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'status': 1, 'msg': 'Data:OK', 'data': {'amount': '11.60', 'vat_amount': '0.60', 'product_lists': [{'product_id': '363863', 'spec_id': '', 'num': 2, 'ingredient': [], 'specification': [], 'package_id': '0', 'ingredient_prices': 0, 'title': '二维码', 'unit': '个', 'is_spec': 0, 'spec_name': '', 'price': '3.00', 'is_discount': '0', 'disctype': '0', 'discval': '100', 'diffprice': '0', 'oldprice': '3.00', 'huodong_id': '0', 'quota': '0', 'disclabel': '', 'quotalabel': '', 'prices_with_ingredients': '6.00', 'oldprices_with_ingredients': '6.00', 'prices': '6.00', 'oldprices': '6.00'}], 'product_number': 2, 'product_price': '6.00', 'product_price_new': '6.00', 'package_price': '0.00', 'freight_stage': 5, 'freight_label': '恶劣天气配送费', 'shop_id': 1294, 'shop_title': '快乐奶茶', 'shop_addr': '测试地址001', 'shop_lng': '118.052748', 'shop_lat': '24.605017', 'online_pay': 1, 'vat': 0.1, 'pei_type': 1, 'is_daofu': 1, 'is_ziti': 1, 'is_ziti_daofu': 0, 'is_ziti_hongbao': 1, 'day_dates': [{'date': '2021-04-12', 'day': '今天(周一)'}, {'date': '2021-04-13', 'day': '明天(周二)'}, {'date': '2021-04-14', 'day': '后天(周三)'}], 'set_time_date': {'set_time': ['17:45', '18:00', '18:15', '18:30', '18:45', '19:00', '19:15', '19:30', '19:45', '20:00', '20:15', '20:30', '20:45', '21:00', '21:15', '21:30', '21:45', '22:00', '22:15', '22:30', '22:45', '23:00', '23:15', '23:30', '23:45'], 'nomal_time': ['01:00', '01:15', '01:30', '01:45', '02:00', '02:15', '02:30', '02:45', '03:00', '07:30', '07:45', '08:00', '08:15', '08:30', '08:45', '09:00', '09:15', '09:30', '09:45', '10:00', '10:15', '10:30', '10:45', '11:00', '11:15', '11:30', '11:45', '12:00', '12:15', '12:30', '12:45', '13:00', '13:15', '13:30', '13:45', '14:00', '14:15', '14:30', '14:45', '15:00', '15:15', '15:30', '15:45', '16:00', '16:15', '16:30', '16:45', '17:00', '17:15', '17:30', '17:45', '18:00', '18:15', '18:30', '18:45', '19:00', '19:15', '19:30', '19:45', '20:00', '20:15', '20:30', '20:45', '21:00', '21:15', '21:30', '21:45', '22:00', '22:15', '22:30', '22:45', '23:00', '23:15', '23:30', '23:45'], 'hide_liji': 0, 'yy_times': ['17:45', '18:00', '18:15', '18:30', '18:45', '19:00', '19:15', '19:30', '19:45', '20:00', '20:15', '20:30', '20:45', '21:00', '21:15', '21:30', '21:45', '22:00', '22:15', '22:30', '22:45', '23:00', '23:15', '23:30', '23:45']}, 'm_addr': {'addr_id': 3003, 'uid': 5344, 'contact': '不想', 'mobile': '0085516273817', 'addr': '中国福建省厦门市集美区凤岐路', 'house': '我们都在这里', 'lat': '24.612852', 'dateline': 1616049985, 'lng': '118.041842', 'type': 1, 'is_default': 0, 'country_code': '00855', 'wx_account': '', 'addr_photo': 'https://images.e-gets.io/upload/photo/202103/20210318_40E5869EF00BF79996B683EEC928FEEB.jpg', 'addr_photo2': '', 'phone_number': '16273817'}, 'youhui': [], 'coupon_id': 0, 'coupon_amount': 0, 'coupons': [], 'hongbao_id': 0, 'hongbao_amount': 0, 'hongbaos': [], 'rate': 6, 'rmb': '69.60', 'payment_pay': {'money': {'amount': '11.60', 'rmb': '69.60'}, 'alipay': {'amount': '11.60', 'rmb': '69.60'}, 'pipay': {'amount': '11.60', 'rmb': '69.60'}, 'icbcwxpay': {'amount': '11.60', 'rmb': '69.60'}}, 'support_hongbao': 1, 'support_first': 1, 'support_manjian': 1, 'support_youhui': 1, 'gonggao': '', 'is_large_order': 0, 'bad_weather': 1, 'khr': '4100', 'show_money_charge': 1, 'is_pay_limit_label': '', 'is_pay_limit': 2}}</t>
+          <t>{'status': 1, 'msg': 'Data:OK', 'data': {'amount': '11.60', 'vat_amount': '0.60', 'product_lists': [{'product_id': '363863', 'spec_id': '', 'num': 2, 'ingredient': [], 'specification': [], 'package_id': '0', 'ingredient_prices': 0, 'title': '二维码', 'unit': '个', 'is_spec': 0, 'spec_name': '', 'price': '3.00', 'is_discount': '0', 'disctype': '0', 'discval': '100', 'diffprice': '0', 'oldprice': '3.00', 'huodong_id': '0', 'quota': '0', 'disclabel': '', 'quotalabel': '', 'prices_with_ingredients': '6.00', 'oldprices_with_ingredients': '6.00', 'prices': '6.00', 'oldprices': '6.00'}], 'product_number': 2, 'product_price': '6.00', 'product_price_new': '6.00', 'package_price': '0.00', 'freight_stage': 5, 'freight_label': '恶劣天气配送费', 'shop_id': 1294, 'shop_title': '快乐奶茶', 'shop_addr': '测试地址001', 'shop_lng': '118.052748', 'shop_lat': '24.605017', 'online_pay': 1, 'vat': 0.1, 'pei_type': 1, 'is_daofu': 1, 'is_ziti': 1, 'is_ziti_daofu': 0, 'is_ziti_hongbao': 1, 'day_dates': [{'date': '2021-04-13', 'day': '今天(周二)'}, {'date': '2021-04-14', 'day': '明天(周三)'}, {'date': '2021-04-15', 'day': '后天(周四)'}], 'set_time_date': {'set_time': ['11:15', '11:30', '11:45', '12:00', '12:15', '12:30', '12:45', '13:00', '13:15', '13:30', '13:45', '14:00', '14:15', '14:30', '14:45', '15:00', '15:15', '15:30', '15:45', '16:00', '16:15', '16:30', '16:45', '17:00', '17:15', '17:30', '17:45', '18:00', '18:15', '18:30', '18:45', '19:00', '19:15', '19:30', '19:45', '20:00', '20:15', '20:30', '20:45', '21:00', '21:15', '21:30', '21:45', '22:00', '22:15', '22:30', '22:45', '23:00', '23:15', '23:30', '23:45'], 'nomal_time': ['01:00', '01:15', '01:30', '01:45', '02:00', '02:15', '02:30', '02:45', '03:00', '07:30', '07:45', '08:00', '08:15', '08:30', '08:45', '09:00', '09:15', '09:30', '09:45', '10:00', '10:15', '10:30', '10:45', '11:00', '11:15', '11:30', '11:45', '12:00', '12:15', '12:30', '12:45', '13:00', '13:15', '13:30', '13:45', '14:00', '14:15', '14:30', '14:45', '15:00', '15:15', '15:30', '15:45', '16:00', '16:15', '16:30', '16:45', '17:00', '17:15', '17:30', '17:45', '18:00', '18:15', '18:30', '18:45', '19:00', '19:15', '19:30', '19:45', '20:00', '20:15', '20:30', '20:45', '21:00', '21:15', '21:30', '21:45', '22:00', '22:15', '22:30', '22:45', '23:00', '23:15', '23:30', '23:45'], 'hide_liji': 0, 'yy_times': ['11:15', '11:30', '11:45', '12:00', '12:15', '12:30', '12:45', '13:00', '13:15', '13:30', '13:45', '14:00', '14:15', '14:30', '14:45', '15:00', '15:15', '15:30', '15:45', '16:00', '16:15', '16:30', '16:45', '17:00', '17:15', '17:30', '17:45', '18:00', '18:15', '18:30', '18:45', '19:00', '19:15', '19:30', '19:45', '20:00', '20:15', '20:30', '20:45', '21:00', '21:15', '21:30', '21:45', '22:00', '22:15', '22:30', '22:45', '23:00', '23:15', '23:30', '23:45']}, 'm_addr': {'addr_id': 3003, 'uid': 5344, 'contact': '不想', 'mobile': '0085516273817', 'addr': '中国福建省厦门市集美区凤岐路', 'house': '我们都在这里', 'lat': '24.612852', 'dateline': 1616049985, 'lng': '118.041842', 'type': 1, 'is_default': 0, 'country_code': '00855', 'wx_account': '', 'addr_photo': 'https://images.e-gets.io/upload/photo/202103/20210318_40E5869EF00BF79996B683EEC928FEEB.jpg', 'addr_photo2': '', 'phone_number': '16273817'}, 'youhui': [], 'coupon_id': 0, 'coupon_amount': 0, 'coupons': [], 'hongbao_id': 0, 'hongbao_amount': 0, 'hongbaos': [], 'rate': 7.20412, 'rmb': '83.56', 'payment_pay': {'money': {'amount': '11.60', 'rmb': '83.56'}, 'pipay': {'amount': '11.60', 'rmb': '83.56'}, 'mpay': {'amount': '11.60', 'rmb': '83.56'}, 'icbcwxpay': {'amount': '11.60', 'rmb': '83.56'}}, 'support_hongbao': 1, 'support_first': 1, 'support_manjian': 1, 'support_youhui': 1, 'gonggao': '', 'is_large_order': 0, 'bad_weather': 1, 'khr': '4100', 'show_money_charge': 1, 'is_pay_limit_label': '', 'is_pay_limit': 2}}</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -1517,12 +1517,12 @@
       </c>
       <c r="G4" s="7" t="inlineStr">
         <is>
-          <t>{'status': 1, 'msg': 'Data:OK', 'data': {'order_id': 34443, 'pay_status': 0, 'online_pay': 1, 'member': {'uid': 5344, 'money': '734.30'}}}</t>
+          <t>{'status': -3040, 'msg': '', 'data': {'confirmed_code': '35531972'}}</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="I4" s="4" t="inlineStr">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'data': {'go_order_detail': '1'}, 'error': '0', 'message': '余额支付成功'}</t>
+          <t>{'data': {'go_order_detail': '0'}, 'error': '213', 'message': '订单非法'}</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
